--- a/storage/field_pos.xlsx
+++ b/storage/field_pos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app\python312\pdf_rep\dev_form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FileZillaDown\pdf_rep\dev_v12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B994A16-2590-4BE3-B6B4-A409C8DB0B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D915635A-C664-4766-92F1-4528BEC3FB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="330" windowWidth="11850" windowHeight="15435" xr2:uid="{E72130DC-46A9-4A62-A814-6744E643695F}"/>
+    <workbookView xWindow="-26880" yWindow="1920" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{E72130DC-46A9-4A62-A814-6744E643695F}"/>
   </bookViews>
   <sheets>
     <sheet name="면적조사서" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>필드명</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -242,9 +246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,7 +286,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -388,7 +392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -530,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,209 +542,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09FE794-B3CB-4B85-85EB-97AC706D3C48}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>150</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>132</v>
       </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="E2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
         <v>284</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>132</v>
       </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="E3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
         <v>130</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>155</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>260</v>
-      </c>
       <c r="C5" s="2">
+        <v>300</v>
+      </c>
+      <c r="D5" s="2">
         <v>155</v>
       </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="E5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>330</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>581</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>325</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>615</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>440</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>721</v>
       </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>330</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>741</v>
       </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>440</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>741</v>
       </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>140</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>750</v>
       </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>354</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>761</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>440</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>761</v>
       </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E13">
+    <sortCondition ref="D2:D13"/>
     <sortCondition ref="C2:C13"/>
-    <sortCondition ref="B2:B13"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -750,83 +791,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA3504B-BB06-48B6-847B-81DD262F296F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D14:D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="8.69921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>240</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>606</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>250</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>658</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>425</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>658</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>422</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>746</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>12</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -836,252 +917,301 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9EFBBF-3874-4EAF-BE89-7394FBE8AF16}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>275</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>141</v>
       </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>275</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>156</v>
       </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>275</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>174</v>
       </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>322</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>192</v>
       </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>285</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>208</v>
       </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="E6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>275</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>226</v>
       </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="E7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>275</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>244</v>
       </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>285</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>263</v>
       </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>285</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>279</v>
       </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>248</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>300</v>
       </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>260</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>646</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5">
+      <c r="C13" s="5">
         <v>290</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>689</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>410</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>689</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>290</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>714</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>410</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>714</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>410</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>736</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>12</v>
       </c>
     </row>
